--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -1,21 +1,290 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abraham\Documents\Data\Research Documents\Final Research Concept\Research Work\Cross-cultural Study\Resubmission\data_analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9449A3EF-5AF9-4EB2-BD78-B4278EAD537A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="86">
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>G_portal</t>
+  </si>
+  <si>
+    <t>Geoportal</t>
+  </si>
+  <si>
+    <t>DisplayType</t>
+  </si>
+  <si>
+    <t>QueryType</t>
+  </si>
+  <si>
+    <t>BasicComputerSkills</t>
+  </si>
+  <si>
+    <t>SpatialAnalysis</t>
+  </si>
+  <si>
+    <t>Webgis</t>
+  </si>
+  <si>
+    <t>WebmapUse</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>GeodataSearching</t>
+  </si>
+  <si>
+    <t>MapMaking</t>
+  </si>
+  <si>
+    <t>GeoportalFrequency1</t>
+  </si>
+  <si>
+    <t>Position1</t>
+  </si>
+  <si>
+    <t>Position2</t>
+  </si>
+  <si>
+    <t>Position3</t>
+  </si>
+  <si>
+    <t>Position4</t>
+  </si>
+  <si>
+    <t>Position5</t>
+  </si>
+  <si>
+    <t>ClearConfusing</t>
+  </si>
+  <si>
+    <t>EfficientInefficient</t>
+  </si>
+  <si>
+    <t>EasyComplicated</t>
+  </si>
+  <si>
+    <t>SupportiveObstructive</t>
+  </si>
+  <si>
+    <t>ExcitingBoring</t>
+  </si>
+  <si>
+    <t>InventiveConventional</t>
+  </si>
+  <si>
+    <t>InterestingNotinteresting</t>
+  </si>
+  <si>
+    <t>LeadingedgeStandard</t>
+  </si>
+  <si>
+    <t>ComplexityRatings</t>
+  </si>
+  <si>
+    <t>GeoportalFrequency</t>
+  </si>
+  <si>
+    <t>rid</t>
+  </si>
+  <si>
+    <t>DCG3</t>
+  </si>
+  <si>
+    <t>DCG5</t>
+  </si>
+  <si>
+    <t>iDCG5</t>
+  </si>
+  <si>
+    <t>iDCG3</t>
+  </si>
+  <si>
+    <t>nDCG5</t>
+  </si>
+  <si>
+    <t>nDCG3</t>
+  </si>
+  <si>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>german</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>geographical_sciences</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>occassionally</t>
+  </si>
+  <si>
+    <t>first time</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>namibian</t>
+  </si>
+  <si>
+    <t>pc_employee</t>
+  </si>
+  <si>
+    <t>urban and regional planning</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>SASSCAL</t>
+  </si>
+  <si>
+    <t>LBM</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>social Sciences</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>US Data</t>
+  </si>
+  <si>
+    <t>rarely</t>
+  </si>
+  <si>
+    <t>geographical Sciences</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>lecturer</t>
+  </si>
+  <si>
+    <t>geographical sciences</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>BTAA</t>
+  </si>
+  <si>
+    <t>once a week</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>European GDI</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>ga_employee</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>Environ</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>GEOSS</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>researcher</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>Humanitarian</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>scientific_officer</t>
+  </si>
+  <si>
+    <t>forestry</t>
+  </si>
+  <si>
+    <t>environmental_sciences</t>
+  </si>
+  <si>
+    <t>UserGroup</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,15 +328,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +418,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +470,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,263 +663,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Participant</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Occupation</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Domain</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>G_portal</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Geoportal</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>DisplayType</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>QueryType</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>BasicComputerSkills</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>SpatialAnalysis</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Webgis</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>WebmapUse</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Programming</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>GeodataSearching</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>MapMaking</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>GeoportalFrequency1</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Position1</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Position2</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Position3</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Position4</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Position5</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>ClearConfusing</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>EfficientInefficient</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>EasyComplicated</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>SupportiveObstructive</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ExcitingBoring</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>InventiveConventional</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>InterestingNotinteresting</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>LeadingedgeStandard</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>ComplexityRatings</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>GeoportalFrequency</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>rid</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>DCG3</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>DCG5</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>iDCG5</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>iDCG3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>nDCG5</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>nDCG3</t>
-        </is>
+    <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>geographical_sciences</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -629,10 +846,8 @@
       <c r="Q2">
         <v>2</v>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="R2" t="s">
+        <v>48</v>
       </c>
       <c r="S2">
         <v>10</v>
@@ -676,81 +891,61 @@
       <c r="AF2">
         <v>8</v>
       </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG2" t="s">
+        <v>49</v>
       </c>
       <c r="AH2">
         <v>13</v>
       </c>
       <c r="AI2">
-        <v>14.52371901428583</v>
+        <v>14.523719014285829</v>
       </c>
       <c r="AJ2">
-        <v>18.31216053526867</v>
+        <v>18.312160535268671</v>
       </c>
       <c r="AK2">
-        <v>18.91292012176286</v>
+        <v>18.912920121762859</v>
       </c>
       <c r="AL2">
-        <v>14.52371901428583</v>
+        <v>14.523719014285829</v>
       </c>
       <c r="AM2">
-        <v>0.9682354928468764</v>
+        <v>0.96823549284687638</v>
       </c>
       <c r="AN2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>114</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>pc_employee</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>urban and regional planning</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>SASSCAL</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -773,10 +968,8 @@
       <c r="Q3">
         <v>3</v>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="R3" t="s">
+        <v>48</v>
       </c>
       <c r="S3">
         <v>10</v>
@@ -820,10 +1013,8 @@
       <c r="AF3">
         <v>10</v>
       </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG3" t="s">
+        <v>49</v>
       </c>
       <c r="AH3">
         <v>36</v>
@@ -832,69 +1023,51 @@
         <v>21.30929753571457</v>
       </c>
       <c r="AJ3">
-        <v>25.39694436225425</v>
+        <v>25.396944362254249</v>
       </c>
       <c r="AK3">
-        <v>25.39694436225425</v>
+        <v>25.396944362254249</v>
       </c>
       <c r="AL3">
         <v>21.30929753571457</v>
       </c>
       <c r="AM3">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AN3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>104</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>social Sciences</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>US Data</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -917,10 +1090,8 @@
       <c r="Q4">
         <v>3</v>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>rarely</t>
-        </is>
+      <c r="R4" t="s">
+        <v>61</v>
       </c>
       <c r="S4">
         <v>5</v>
@@ -964,81 +1135,61 @@
       <c r="AF4">
         <v>7</v>
       </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>rarely</t>
-        </is>
+      <c r="AG4" t="s">
+        <v>61</v>
       </c>
       <c r="AH4">
         <v>29</v>
       </c>
       <c r="AI4">
-        <v>11.65464876785729</v>
+        <v>11.654648767857291</v>
       </c>
       <c r="AJ4">
-        <v>17.76420713224737</v>
+        <v>17.764207132247371</v>
       </c>
       <c r="AK4">
         <v>20.00415510153988</v>
       </c>
       <c r="AL4">
-        <v>12.65464876785729</v>
+        <v>12.654648767857291</v>
       </c>
       <c r="AM4">
-        <v>0.888025864730469</v>
+        <v>0.88802586473046896</v>
       </c>
       <c r="AN4">
         <v>0.9209776566426725</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>103</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>geographical Sciences</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1061,10 +1212,8 @@
       <c r="Q5">
         <v>4</v>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="R5" t="s">
+        <v>48</v>
       </c>
       <c r="S5">
         <v>5</v>
@@ -1108,25 +1257,23 @@
       <c r="AF5">
         <v>5</v>
       </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="AG5" t="s">
+        <v>48</v>
       </c>
       <c r="AH5">
         <v>28</v>
       </c>
       <c r="AI5">
-        <v>10.65464876785729</v>
+        <v>10.654648767857291</v>
       </c>
       <c r="AJ5">
-        <v>18.05623680646755</v>
+        <v>18.056236806467549</v>
       </c>
       <c r="AK5">
         <v>21.63508485511133</v>
       </c>
       <c r="AL5">
-        <v>10.65464876785729</v>
+        <v>10.654648767857291</v>
       </c>
       <c r="AM5">
         <v>0.8345812797772193</v>
@@ -1135,54 +1282,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>115</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>lecturer</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>geographical sciences</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>BTAA</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1205,10 +1334,8 @@
       <c r="Q6">
         <v>5</v>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="R6" t="s">
+        <v>48</v>
       </c>
       <c r="S6">
         <v>10</v>
@@ -1252,10 +1379,8 @@
       <c r="AF6">
         <v>5</v>
       </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG6" t="s">
+        <v>49</v>
       </c>
       <c r="AH6">
         <v>38</v>
@@ -1264,10 +1389,10 @@
         <v>21.30929753571457</v>
       </c>
       <c r="AJ6">
-        <v>23.76188563163838</v>
+        <v>23.761885631638378</v>
       </c>
       <c r="AK6">
-        <v>23.76188563163838</v>
+        <v>23.761885631638378</v>
       </c>
       <c r="AL6">
         <v>21.30929753571457</v>
@@ -1279,54 +1404,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>113</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>geographical Sciences</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>BTAA</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>63</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1349,10 +1456,8 @@
       <c r="Q7">
         <v>3</v>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>once a week</t>
-        </is>
+      <c r="R7" t="s">
+        <v>68</v>
       </c>
       <c r="S7">
         <v>7</v>
@@ -1396,81 +1501,61 @@
       <c r="AF7">
         <v>3</v>
       </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG7" t="s">
+        <v>49</v>
       </c>
       <c r="AH7">
         <v>35</v>
       </c>
       <c r="AI7">
-        <v>16.54743802857166</v>
+        <v>16.547438028571658</v>
       </c>
       <c r="AJ7">
-        <v>24.29205512357762</v>
+        <v>24.292055123577619</v>
       </c>
       <c r="AK7">
-        <v>26.33174989737205</v>
+        <v>26.331749897372049</v>
       </c>
       <c r="AL7">
-        <v>17.54743802857166</v>
+        <v>17.547438028571658</v>
       </c>
       <c r="AM7">
-        <v>0.9225385786457738</v>
+        <v>0.92253857864577382</v>
       </c>
       <c r="AN7">
-        <v>0.9430116237839536</v>
+        <v>0.94301162378395365</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>105</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>geographical Sciences</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>G5</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>European GDI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>63</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1493,10 +1578,8 @@
       <c r="Q8">
         <v>5</v>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
+      <c r="R8" t="s">
+        <v>71</v>
       </c>
       <c r="S8">
         <v>6</v>
@@ -1540,81 +1623,61 @@
       <c r="AF8">
         <v>6</v>
       </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="AG8" t="s">
+        <v>48</v>
       </c>
       <c r="AH8">
         <v>30</v>
       </c>
       <c r="AI8">
-        <v>10.65464876785729</v>
+        <v>10.654648767857291</v>
       </c>
       <c r="AJ8">
         <v>14.31161903632357</v>
       </c>
       <c r="AK8">
-        <v>14.53791342185449</v>
+        <v>14.537913421854491</v>
       </c>
       <c r="AL8">
-        <v>10.65464876785729</v>
+        <v>10.654648767857291</v>
       </c>
       <c r="AM8">
-        <v>0.9844341908660196</v>
+        <v>0.98443419086601958</v>
       </c>
       <c r="AN8">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>101</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>geographical Sciences</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>63</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1637,10 +1700,8 @@
       <c r="Q9">
         <v>4</v>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="R9" t="s">
+        <v>48</v>
       </c>
       <c r="S9">
         <v>5</v>
@@ -1684,81 +1745,61 @@
       <c r="AF9">
         <v>8</v>
       </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG9" t="s">
+        <v>49</v>
       </c>
       <c r="AH9">
         <v>26</v>
       </c>
       <c r="AI9">
-        <v>12.02371901428583</v>
+        <v>12.023719014285829</v>
       </c>
       <c r="AJ9">
         <v>12.84124837959377</v>
       </c>
       <c r="AK9">
-        <v>14.97217813316522</v>
+        <v>14.972178133165221</v>
       </c>
       <c r="AL9">
-        <v>14.15464876785729</v>
+        <v>14.154648767857291</v>
       </c>
       <c r="AM9">
-        <v>0.8576740314856939</v>
+        <v>0.85767403148569388</v>
       </c>
       <c r="AN9">
-        <v>0.8494537173956289</v>
+        <v>0.84945371739562892</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>108</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ga_employee</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>geographical Sciences</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>G6</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Environ</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
       </c>
       <c r="K10">
         <v>5</v>
@@ -1781,10 +1822,8 @@
       <c r="Q10">
         <v>5</v>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="R10" t="s">
+        <v>48</v>
       </c>
       <c r="S10">
         <v>6</v>
@@ -1828,81 +1867,61 @@
       <c r="AF10">
         <v>5</v>
       </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="AG10" t="s">
+        <v>48</v>
       </c>
       <c r="AH10">
         <v>33</v>
       </c>
       <c r="AI10">
-        <v>11.15464876785729</v>
+        <v>11.154648767857291</v>
       </c>
       <c r="AJ10">
-        <v>14.46858997992788</v>
+        <v>14.468589979927881</v>
       </c>
       <c r="AK10">
-        <v>14.53791342185449</v>
+        <v>14.537913421854491</v>
       </c>
       <c r="AL10">
-        <v>11.15464876785729</v>
+        <v>11.154648767857291</v>
       </c>
       <c r="AM10">
-        <v>0.9952315411493374</v>
+        <v>0.99523154114933743</v>
       </c>
       <c r="AN10">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>116</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>pc_employee</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>geographical Sciences</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>SASSCAL</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
       </c>
       <c r="K11">
         <v>5</v>
@@ -1925,10 +1944,8 @@
       <c r="Q11">
         <v>5</v>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
+      <c r="R11" t="s">
+        <v>71</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1972,81 +1989,61 @@
       <c r="AF11">
         <v>7</v>
       </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG11" t="s">
+        <v>49</v>
       </c>
       <c r="AH11">
         <v>39</v>
       </c>
       <c r="AI11">
-        <v>2.130929753571458</v>
+        <v>2.1309297535714582</v>
       </c>
       <c r="AJ11">
-        <v>4.8827231550521</v>
+        <v>4.8827231550521004</v>
       </c>
       <c r="AK11">
-        <v>7.948459118879392</v>
+        <v>7.9484591188793923</v>
       </c>
       <c r="AL11">
-        <v>2.130929753571458</v>
+        <v>2.1309297535714582</v>
       </c>
       <c r="AM11">
-        <v>0.6142980774040249</v>
+        <v>0.61429807740402487</v>
       </c>
       <c r="AN11">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>111</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>geographical Sciences</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>G7</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>GEOSS</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
       </c>
       <c r="K12">
         <v>5</v>
@@ -2069,10 +2066,8 @@
       <c r="Q12">
         <v>5</v>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="R12" t="s">
+        <v>48</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -2116,81 +2111,61 @@
       <c r="AF12">
         <v>4</v>
       </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG12" t="s">
+        <v>49</v>
       </c>
       <c r="AH12">
         <v>37</v>
       </c>
       <c r="AI12">
-        <v>8.916508275000202</v>
+        <v>8.9165082750002025</v>
       </c>
       <c r="AJ12">
         <v>15.02606663939029</v>
       </c>
       <c r="AK12">
-        <v>19.3180969887485</v>
+        <v>19.318096988748501</v>
       </c>
       <c r="AL12">
-        <v>11.9165082750002</v>
+        <v>11.916508275000201</v>
       </c>
       <c r="AM12">
-        <v>0.7778233357116888</v>
+        <v>0.77782333571168882</v>
       </c>
       <c r="AN12">
-        <v>0.7482484020681008</v>
+        <v>0.74824840206810084</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>geographical_sciences</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>G6</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Environ</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -2213,10 +2188,8 @@
       <c r="Q13">
         <v>4</v>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="R13" t="s">
+        <v>48</v>
       </c>
       <c r="S13">
         <v>8</v>
@@ -2260,81 +2233,61 @@
       <c r="AF13">
         <v>4</v>
       </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG13" t="s">
+        <v>49</v>
       </c>
       <c r="AH13">
         <v>11</v>
       </c>
       <c r="AI13">
-        <v>17.54743802857166</v>
+        <v>17.547438028571658</v>
       </c>
       <c r="AJ13">
-        <v>24.47452575826968</v>
+        <v>24.474525758269682</v>
       </c>
       <c r="AK13">
-        <v>25.2186027046066</v>
+        <v>25.218602704606599</v>
       </c>
       <c r="AL13">
-        <v>18.04743802857166</v>
+        <v>18.047438028571658</v>
       </c>
       <c r="AM13">
-        <v>0.9704949177774628</v>
+        <v>0.97049491777746277</v>
       </c>
       <c r="AN13">
-        <v>0.9722952366309041</v>
+        <v>0.97229523663090411</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>geographical_sciences</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>BTAA</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" t="s">
+        <v>63</v>
       </c>
       <c r="K14">
         <v>4</v>
@@ -2357,10 +2310,8 @@
       <c r="Q14">
         <v>4</v>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>rarely</t>
-        </is>
+      <c r="R14" t="s">
+        <v>61</v>
       </c>
       <c r="S14">
         <v>3</v>
@@ -2404,81 +2355,61 @@
       <c r="AF14">
         <v>4</v>
       </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG14" t="s">
+        <v>49</v>
       </c>
       <c r="AH14">
         <v>7</v>
       </c>
       <c r="AI14">
-        <v>5.892789260714372</v>
+        <v>5.8927892607143724</v>
       </c>
       <c r="AJ14">
-        <v>9.250554223623814</v>
+        <v>9.2505542236238139</v>
       </c>
       <c r="AK14">
-        <v>11.02784799133024</v>
+        <v>11.027847991330241</v>
       </c>
       <c r="AL14">
-        <v>5.892789260714372</v>
+        <v>5.8927892607143724</v>
       </c>
       <c r="AM14">
-        <v>0.838835848199605</v>
+        <v>0.83883584819960499</v>
       </c>
       <c r="AN14">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>109</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>geographical Sciences</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>G7</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>GEOSS</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>63</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -2501,10 +2432,8 @@
       <c r="Q15">
         <v>4</v>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
+      <c r="R15" t="s">
+        <v>71</v>
       </c>
       <c r="S15">
         <v>5</v>
@@ -2548,10 +2477,8 @@
       <c r="AF15">
         <v>9</v>
       </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG15" t="s">
+        <v>49</v>
       </c>
       <c r="AH15">
         <v>34</v>
@@ -2560,10 +2487,10 @@
         <v>14.04743802857166</v>
       </c>
       <c r="AJ15">
-        <v>20.58767295103514</v>
+        <v>20.587672951035142</v>
       </c>
       <c r="AK15">
-        <v>22.42711452933151</v>
+        <v>22.427114529331512</v>
       </c>
       <c r="AL15">
         <v>15.54743802857166</v>
@@ -2572,57 +2499,39 @@
         <v>0.9179813535133714</v>
       </c>
       <c r="AN15">
-        <v>0.9035210819143683</v>
+        <v>0.90352108191436831</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>geographical_sciences</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>US Data</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2645,10 +2554,8 @@
       <c r="Q16">
         <v>4</v>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>rarely</t>
-        </is>
+      <c r="R16" t="s">
+        <v>61</v>
       </c>
       <c r="S16">
         <v>9</v>
@@ -2692,10 +2599,8 @@
       <c r="AF16">
         <v>2</v>
       </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG16" t="s">
+        <v>49</v>
       </c>
       <c r="AH16">
         <v>24</v>
@@ -2704,10 +2609,10 @@
         <v>15.04743802857166</v>
       </c>
       <c r="AJ16">
-        <v>16.29564395195299</v>
+        <v>16.295643951952989</v>
       </c>
       <c r="AK16">
-        <v>16.29564395195299</v>
+        <v>16.295643951952989</v>
       </c>
       <c r="AL16">
         <v>15.04743802857166</v>
@@ -2719,54 +2624,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>112</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>geographical Sciences</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>G8</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Humanitarian</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -2789,10 +2676,8 @@
       <c r="Q17">
         <v>4</v>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="R17" t="s">
+        <v>48</v>
       </c>
       <c r="S17">
         <v>10</v>
@@ -2836,10 +2721,8 @@
       <c r="AF17">
         <v>3</v>
       </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG17" t="s">
+        <v>49</v>
       </c>
       <c r="AH17">
         <v>34</v>
@@ -2863,54 +2746,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>102</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>geographical Sciences</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>US Data</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -2933,10 +2798,8 @@
       <c r="Q18">
         <v>5</v>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>once a week</t>
-        </is>
+      <c r="R18" t="s">
+        <v>68</v>
       </c>
       <c r="S18">
         <v>10</v>
@@ -2980,10 +2843,8 @@
       <c r="AF18">
         <v>3</v>
       </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG18" t="s">
+        <v>49</v>
       </c>
       <c r="AH18">
         <v>27</v>
@@ -2992,10 +2853,10 @@
         <v>21.30929753571457</v>
       </c>
       <c r="AJ18">
-        <v>29.48459118879392</v>
+        <v>29.484591188793921</v>
       </c>
       <c r="AK18">
-        <v>29.48459118879392</v>
+        <v>29.484591188793921</v>
       </c>
       <c r="AL18">
         <v>21.30929753571457</v>
@@ -3007,54 +2868,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>107</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>geographical Sciences</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>G5</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>European GDI</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -3077,10 +2920,8 @@
       <c r="Q19">
         <v>5</v>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
+      <c r="R19" t="s">
+        <v>71</v>
       </c>
       <c r="S19">
         <v>4</v>
@@ -3124,10 +2965,8 @@
       <c r="AF19">
         <v>6</v>
       </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>weekly</t>
-        </is>
+      <c r="AG19" t="s">
+        <v>81</v>
       </c>
       <c r="AH19">
         <v>32</v>
@@ -3136,69 +2975,51 @@
         <v>13.54743802857166</v>
       </c>
       <c r="AJ19">
-        <v>18.24105641654013</v>
+        <v>18.241056416540129</v>
       </c>
       <c r="AK19">
-        <v>21.78792682167123</v>
+        <v>21.787926821671231</v>
       </c>
       <c r="AL19">
-        <v>16.04743802857166</v>
+        <v>16.047438028571658</v>
       </c>
       <c r="AM19">
-        <v>0.8372093667212419</v>
+        <v>0.83720936672124191</v>
       </c>
       <c r="AN19">
-        <v>0.8442118925432909</v>
+        <v>0.84421189254329088</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>13</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>pc_employee</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>geographical_sciences</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>G8</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Humanitarian</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" t="s">
+        <v>63</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -3221,10 +3042,8 @@
       <c r="Q20">
         <v>4</v>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>weekly</t>
-        </is>
+      <c r="R20" t="s">
+        <v>81</v>
       </c>
       <c r="S20">
         <v>3</v>
@@ -3268,19 +3087,17 @@
       <c r="AF20">
         <v>5</v>
       </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG20" t="s">
+        <v>49</v>
       </c>
       <c r="AH20">
         <v>23</v>
       </c>
       <c r="AI20">
-        <v>8.54743802857166</v>
+        <v>8.5474380285716602</v>
       </c>
       <c r="AJ20">
-        <v>9.364967393879596</v>
+        <v>9.3649673938795956</v>
       </c>
       <c r="AK20">
         <v>11.21031862602231</v>
@@ -3289,60 +3106,42 @@
         <v>10.39278926071437</v>
       </c>
       <c r="AM20">
-        <v>0.8353881549932817</v>
+        <v>0.83538815499328167</v>
       </c>
       <c r="AN20">
         <v>0.8224392715131541</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>106</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>geographical Sciences</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>G6</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Environ</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -3365,10 +3164,8 @@
       <c r="Q21">
         <v>3</v>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
+      <c r="R21" t="s">
+        <v>71</v>
       </c>
       <c r="S21">
         <v>8</v>
@@ -3412,81 +3209,61 @@
       <c r="AF21">
         <v>9</v>
       </c>
-      <c r="AG21" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="AG21" t="s">
+        <v>48</v>
       </c>
       <c r="AH21">
         <v>31</v>
       </c>
       <c r="AI21">
-        <v>16.4165082750002</v>
+        <v>16.416508275000201</v>
       </c>
       <c r="AJ21">
         <v>22.95674319746368</v>
       </c>
       <c r="AK21">
-        <v>23.20082014380059</v>
+        <v>23.200820143800591</v>
       </c>
       <c r="AL21">
-        <v>16.54743802857166</v>
+        <v>16.547438028571658</v>
       </c>
       <c r="AM21">
-        <v>0.9894798138676087</v>
+        <v>0.98947981386760875</v>
       </c>
       <c r="AN21">
-        <v>0.9920876117894875</v>
+        <v>0.99208761178948746</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>geographical_sciences</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>G6</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Environ</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -3509,10 +3286,8 @@
       <c r="Q22">
         <v>4</v>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>rarely</t>
-        </is>
+      <c r="R22" t="s">
+        <v>61</v>
       </c>
       <c r="S22">
         <v>2</v>
@@ -3556,81 +3331,61 @@
       <c r="AF22">
         <v>8</v>
       </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG22" t="s">
+        <v>49</v>
       </c>
       <c r="AH22">
         <v>17</v>
       </c>
       <c r="AI22">
-        <v>5.261859507142916</v>
+        <v>5.2618595071429164</v>
       </c>
       <c r="AJ22">
-        <v>7.758271353905571</v>
+        <v>7.7582713539055712</v>
       </c>
       <c r="AK22">
         <v>9.1587777449017</v>
       </c>
       <c r="AL22">
-        <v>6.261859507142916</v>
+        <v>6.2618595071429164</v>
       </c>
       <c r="AM22">
-        <v>0.8470858852562799</v>
+        <v>0.84708588525627992</v>
       </c>
       <c r="AN22">
-        <v>0.8403030283801005</v>
+        <v>0.84030302838010051</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>geographical_sciences</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -3653,10 +3408,8 @@
       <c r="Q23">
         <v>4</v>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>rarely</t>
-        </is>
+      <c r="R23" t="s">
+        <v>61</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -3700,81 +3453,61 @@
       <c r="AF23">
         <v>7</v>
       </c>
-      <c r="AG23" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG23" t="s">
+        <v>49</v>
       </c>
       <c r="AH23">
         <v>19</v>
       </c>
       <c r="AI23">
-        <v>6.630929753571458</v>
+        <v>6.6309297535714578</v>
       </c>
       <c r="AJ23">
-        <v>14.8062234066508</v>
+        <v>14.806223406650799</v>
       </c>
       <c r="AK23">
-        <v>22.12682690102251</v>
+        <v>22.126826901022511</v>
       </c>
       <c r="AL23">
         <v>11.13092975357146</v>
       </c>
       <c r="AM23">
-        <v>0.6691525844569511</v>
+        <v>0.66915258445695114</v>
       </c>
       <c r="AN23">
-        <v>0.5957211033017135</v>
+        <v>0.59572110330171346</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>scientific_officer</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>forestry</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>G8</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Humanitarian</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" t="s">
+        <v>63</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -3797,10 +3530,8 @@
       <c r="Q24">
         <v>3</v>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>weekly</t>
-        </is>
+      <c r="R24" t="s">
+        <v>81</v>
       </c>
       <c r="S24">
         <v>8</v>
@@ -3844,81 +3575,61 @@
       <c r="AF24">
         <v>4</v>
       </c>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG24" t="s">
+        <v>49</v>
       </c>
       <c r="AH24">
         <v>18</v>
       </c>
       <c r="AI24">
-        <v>14.4165082750002</v>
+        <v>14.416508275000201</v>
       </c>
       <c r="AJ24">
-        <v>18.46033135070103</v>
+        <v>18.460331350701029</v>
       </c>
       <c r="AK24">
-        <v>18.68662573623194</v>
+        <v>18.686625736231939</v>
       </c>
       <c r="AL24">
-        <v>14.4165082750002</v>
+        <v>14.416508275000201</v>
       </c>
       <c r="AM24">
-        <v>0.9878900348984809</v>
+        <v>0.98789003489848093</v>
       </c>
       <c r="AN24">
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>11</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>geographical_sciences</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>G7</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>GEOSS</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" t="s">
+        <v>63</v>
       </c>
       <c r="K25">
         <v>5</v>
@@ -3941,10 +3652,8 @@
       <c r="Q25">
         <v>4</v>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="R25" t="s">
+        <v>48</v>
       </c>
       <c r="S25">
         <v>10</v>
@@ -3988,10 +3697,8 @@
       <c r="AF25">
         <v>5</v>
       </c>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG25" t="s">
+        <v>49</v>
       </c>
       <c r="AH25">
         <v>20</v>
@@ -4000,69 +3707,51 @@
         <v>20.80929753571457</v>
       </c>
       <c r="AJ25">
-        <v>25.50291592368305</v>
+        <v>25.502915923683052</v>
       </c>
       <c r="AK25">
-        <v>25.57223936560965</v>
+        <v>25.572239365609651</v>
       </c>
       <c r="AL25">
         <v>20.80929753571457</v>
       </c>
       <c r="AM25">
-        <v>0.9972891133648688</v>
+        <v>0.99728911336486881</v>
       </c>
       <c r="AN25">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>110</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>namibian</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>geographical Sciences</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>G8</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Humanitarian</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -4085,10 +3774,8 @@
       <c r="Q26">
         <v>5</v>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
+      <c r="R26" t="s">
+        <v>71</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -4132,81 +3819,61 @@
       <c r="AF26">
         <v>4</v>
       </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG26" t="s">
+        <v>49</v>
       </c>
       <c r="AH26">
         <v>35</v>
       </c>
       <c r="AI26">
-        <v>3.261859507142915</v>
+        <v>3.2618595071429151</v>
       </c>
       <c r="AJ26">
-        <v>4.466241679685391</v>
+        <v>4.4662416796853908</v>
       </c>
       <c r="AK26">
         <v>5.07938887245085</v>
       </c>
       <c r="AL26">
-        <v>3.761859507142915</v>
+        <v>3.7618595071429151</v>
       </c>
       <c r="AM26">
-        <v>0.8792872118748392</v>
+        <v>0.87928721187483916</v>
       </c>
       <c r="AN26">
-        <v>0.8670870086853021</v>
+        <v>0.86708700868530209</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>geographical_sciences</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>BTAA</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -4229,10 +3896,8 @@
       <c r="Q27">
         <v>3</v>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="R27" t="s">
+        <v>48</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -4276,25 +3941,23 @@
       <c r="AF27">
         <v>3</v>
       </c>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG27" t="s">
+        <v>49</v>
       </c>
       <c r="AH27">
         <v>9</v>
       </c>
       <c r="AI27">
-        <v>2.130929753571458</v>
+        <v>2.1309297535714582</v>
       </c>
       <c r="AJ27">
-        <v>2.948459118879392</v>
+        <v>2.9484591188793918</v>
       </c>
       <c r="AK27">
-        <v>2.948459118879392</v>
+        <v>2.9484591188793918</v>
       </c>
       <c r="AL27">
-        <v>2.130929753571458</v>
+        <v>2.1309297535714582</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -4303,54 +3966,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>geographical_sciences</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>SASSCAL</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" t="s">
+        <v>47</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -4373,10 +4018,8 @@
       <c r="Q28">
         <v>4</v>
       </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>weekly</t>
-        </is>
+      <c r="R28" t="s">
+        <v>81</v>
       </c>
       <c r="S28">
         <v>8</v>
@@ -4420,81 +4063,61 @@
       <c r="AF28">
         <v>2</v>
       </c>
-      <c r="AG28" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG28" t="s">
+        <v>49</v>
       </c>
       <c r="AH28">
         <v>12</v>
       </c>
       <c r="AI28">
-        <v>12.65464876785729</v>
+        <v>12.654648767857291</v>
       </c>
       <c r="AJ28">
-        <v>19.19488369032076</v>
+        <v>19.194883690320761</v>
       </c>
       <c r="AK28">
         <v>20.36137924064225</v>
       </c>
       <c r="AL28">
-        <v>12.65464876785729</v>
+        <v>12.654648767857291</v>
       </c>
       <c r="AM28">
-        <v>0.9427103863380185</v>
+        <v>0.94271038633801851</v>
       </c>
       <c r="AN28">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>geographical_sciences</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>SASSCAL</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
       </c>
       <c r="K29">
         <v>5</v>
@@ -4517,10 +4140,8 @@
       <c r="Q29">
         <v>5</v>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>weekly</t>
-        </is>
+      <c r="R29" t="s">
+        <v>81</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -4564,10 +4185,8 @@
       <c r="AF29">
         <v>1</v>
       </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG29" t="s">
+        <v>49</v>
       </c>
       <c r="AH29">
         <v>15</v>
@@ -4576,69 +4195,51 @@
         <v>10.80929753571457</v>
       </c>
       <c r="AJ29">
-        <v>11.62682690102251</v>
+        <v>11.626826901022509</v>
       </c>
       <c r="AK29">
         <v>15.73403764030814</v>
       </c>
       <c r="AL29">
-        <v>14.9165082750002</v>
+        <v>14.916508275000201</v>
       </c>
       <c r="AM29">
-        <v>0.7389601554807776</v>
+        <v>0.73896015548077765</v>
       </c>
       <c r="AN29">
-        <v>0.7246533395372938</v>
+        <v>0.72465333953729383</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>12</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>pc_employee</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>environmental_sciences</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>US Data</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s">
+        <v>47</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -4661,10 +4262,8 @@
       <c r="Q30">
         <v>3</v>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="R30" t="s">
+        <v>48</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -4708,81 +4307,61 @@
       <c r="AF30">
         <v>7</v>
       </c>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG30" t="s">
+        <v>49</v>
       </c>
       <c r="AH30">
         <v>22</v>
       </c>
       <c r="AI30">
-        <v>2.130929753571458</v>
+        <v>2.1309297535714582</v>
       </c>
       <c r="AJ30">
-        <v>9.14566498494718</v>
+        <v>9.1456649849471798</v>
       </c>
       <c r="AK30">
         <v>15.73403764030814</v>
       </c>
       <c r="AL30">
-        <v>2.130929753571458</v>
+        <v>2.1309297535714582</v>
       </c>
       <c r="AM30">
-        <v>0.5812662454497642</v>
+        <v>0.58126624544976424</v>
       </c>
       <c r="AN30">
         <v>1</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>7</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>geographical_sciences</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>G7</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>GEOSS</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>LBM</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -4805,10 +4384,8 @@
       <c r="Q31">
         <v>4</v>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="R31" t="s">
+        <v>48</v>
       </c>
       <c r="S31">
         <v>9</v>
@@ -4852,81 +4429,61 @@
       <c r="AF31">
         <v>4</v>
       </c>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG31" t="s">
+        <v>49</v>
       </c>
       <c r="AH31">
         <v>16</v>
       </c>
       <c r="AI31">
-        <v>16.9165082750002</v>
+        <v>16.916508275000201</v>
       </c>
       <c r="AJ31">
-        <v>23.15753789190684</v>
+        <v>23.157537891906841</v>
       </c>
       <c r="AK31">
-        <v>24.12736772482958</v>
+        <v>24.127367724829579</v>
       </c>
       <c r="AL31">
-        <v>16.9165082750002</v>
+        <v>16.916508275000201</v>
       </c>
       <c r="AM31">
-        <v>0.9598037446942594</v>
+        <v>0.95980374469425944</v>
       </c>
       <c r="AN31">
         <v>1</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>geographical_sciences</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>G5</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>European GDI</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" t="s">
+        <v>63</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -4949,10 +4506,8 @@
       <c r="Q32">
         <v>4</v>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>occassionally</t>
-        </is>
+      <c r="R32" t="s">
+        <v>48</v>
       </c>
       <c r="S32">
         <v>8</v>
@@ -4996,81 +4551,61 @@
       <c r="AF32">
         <v>2</v>
       </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>rarely</t>
-        </is>
+      <c r="AG32" t="s">
+        <v>61</v>
       </c>
       <c r="AH32">
         <v>38</v>
       </c>
       <c r="AI32">
-        <v>12.02371901428583</v>
+        <v>12.023719014285829</v>
       </c>
       <c r="AJ32">
         <v>14.99463116996073</v>
       </c>
       <c r="AK32">
-        <v>15.46446100288347</v>
+        <v>15.464461002883469</v>
       </c>
       <c r="AL32">
-        <v>12.02371901428583</v>
+        <v>12.023719014285829</v>
       </c>
       <c r="AM32">
-        <v>0.9696187385493015</v>
+        <v>0.96961873854930147</v>
       </c>
       <c r="AN32">
         <v>1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>16</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>geographical_sciences</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>G5</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>European GDI</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -5093,10 +4628,8 @@
       <c r="Q33">
         <v>4</v>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>rarely</t>
-        </is>
+      <c r="R33" t="s">
+        <v>61</v>
       </c>
       <c r="S33">
         <v>10</v>
@@ -5140,10 +4673,8 @@
       <c r="AF33">
         <v>1</v>
       </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>first time</t>
-        </is>
+      <c r="AG33" t="s">
+        <v>49</v>
       </c>
       <c r="AH33">
         <v>39</v>
@@ -5158,13 +4689,13 @@
         <v>15.10310788673668</v>
       </c>
       <c r="AL33">
-        <v>14.28557852142874</v>
+        <v>14.285578521428739</v>
       </c>
       <c r="AM33">
-        <v>0.9566546983066849</v>
+        <v>0.95665469830668493</v>
       </c>
       <c r="AN33">
-        <v>0.9541741507440321</v>
+        <v>0.95417415074403211</v>
       </c>
     </row>
   </sheetData>
